--- a/Hitungan Unclean.xlsx
+++ b/Hitungan Unclean.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A3AFE-2783-4F9B-ACD4-3F534C14D6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D5D14-ED7C-44D7-B90E-A1EE1AC2E922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="1 Sample" sheetId="2" r:id="rId2"/>
+    <sheet name="Gender" sheetId="3" r:id="rId3"/>
+    <sheet name="Days" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -98,6 +100,141 @@
   </si>
   <si>
     <t>Jenis Kelamin Anda</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>one tail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H0: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 450000</t>
+    </r>
+  </si>
+  <si>
+    <t>H1: &gt; 450000</t>
+  </si>
+  <si>
+    <t>Reject H0 t &gt; ta</t>
+  </si>
+  <si>
+    <t>Decision: Reject H0 (Mahasiswa HTB UC memerlukan uang saku lebih dari Rp. 450.000,- per minggu)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H0: P </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L</t>
+    </r>
+  </si>
+  <si>
+    <t>H1: P &gt; L</t>
+  </si>
+  <si>
+    <t>Decision: Reject H0 (Mahasiswa HTB Perempuan memiliki pengeluaran mingguan lebih kecil daripada mahasiswa HTB Laki-laki)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H0: W-days </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> W-end</t>
+    </r>
+  </si>
+  <si>
+    <t>H1: W-days &gt; W-end</t>
   </si>
 </sst>
 </file>
@@ -107,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +276,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +316,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,6 +402,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,19 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -548,8 +727,10 @@
       <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -566,11 +747,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <f>(B2*C2*5)+(D2*E2*2)</f>
+        <f t="shared" ref="F2:F33" si="0">(B2*C2*5)+(D2*E2*2)</f>
         <v>350000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -587,15 +768,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <f>(B3*C3*5)+(D3*E3*2)</f>
+        <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -612,11 +793,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <f>(B4*C4*5)+(D4*E4*2)</f>
+        <f t="shared" si="0"/>
         <v>2100000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -633,17 +814,17 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <f>(B5*C5*5)+(D5*E5*2)</f>
+        <f t="shared" si="0"/>
         <v>1170000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="13">
+      <c r="N5" s="13">
         <v>741327.86885245901</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -660,17 +841,17 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <f>(B6*C6*5)+(D6*E6*2)</f>
+        <f t="shared" si="0"/>
         <v>406000</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13">
+      <c r="N6" s="13">
         <v>113026.69415178252</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -687,17 +868,17 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <f>(B7*C7*5)+(D7*E7*2)</f>
+        <f t="shared" si="0"/>
         <v>354000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="13">
+      <c r="N7" s="13">
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -714,17 +895,17 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f>(B8*C8*5)+(D8*E8*2)</f>
+        <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="13">
+      <c r="N8" s="13">
         <v>450000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -741,17 +922,17 @@
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <f>(B9*C9*5)+(D9*E9*2)</f>
+        <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="13">
+      <c r="N9" s="13">
         <v>882766.70136775996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
@@ -768,17 +949,17 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <f>(B10*C10*5)+(D10*E10*2)</f>
+        <f t="shared" si="0"/>
         <v>465000</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="13">
+      <c r="N10" s="13">
         <v>779277049043.71594</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -795,17 +976,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>(B11*C11*5)+(D11*E11*2)</f>
+        <f t="shared" si="0"/>
         <v>525000</v>
       </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="13">
+      <c r="N11" s="13">
         <v>39.116339493635223</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -822,17 +1003,17 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>(B12*C12*5)+(D12*E12*2)</f>
+        <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>5.8180314410750569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -849,17 +1030,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <f>(B13*C13*5)+(D13*E13*2)</f>
+        <f t="shared" si="0"/>
         <v>560000</v>
       </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>6617500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
@@ -876,17 +1057,17 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <f>(B14*C14*5)+(D14*E14*2)</f>
+        <f t="shared" si="0"/>
         <v>1180000</v>
       </c>
-      <c r="H14" t="s">
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>222500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -903,17 +1084,17 @@
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>(B15*C15*5)+(D15*E15*2)</f>
+        <f t="shared" si="0"/>
         <v>330000</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>6840000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -930,17 +1111,17 @@
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>(B16*C16*5)+(D16*E16*2)</f>
+        <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="H16" t="s">
+      <c r="M16" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>45221000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -957,17 +1138,17 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>(B17*C17*5)+(D17*E17*2)</f>
+        <f t="shared" si="0"/>
         <v>430000</v>
       </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="13">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -984,17 +1165,17 @@
         <v>4</v>
       </c>
       <c r="F18" s="1">
-        <f>(B18*C18*5)+(D18*E18*2)</f>
+        <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="M18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="11">
         <v>226087.05014128255</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1011,11 +1192,11 @@
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <f>(B19*C19*5)+(D19*E19*2)</f>
+        <f t="shared" si="0"/>
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1032,11 +1213,11 @@
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f>(B20*C20*5)+(D20*E20*2)</f>
+        <f t="shared" si="0"/>
         <v>630000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1053,11 +1234,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <f>(B21*C21*5)+(D21*E21*2)</f>
+        <f t="shared" si="0"/>
         <v>370000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -1074,11 +1255,11 @@
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f>(B22*C22*5)+(D22*E22*2)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1095,11 +1276,11 @@
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>(B23*C23*5)+(D23*E23*2)</f>
+        <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -1116,11 +1297,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>(B24*C24*5)+(D24*E24*2)</f>
+        <f t="shared" si="0"/>
         <v>2295000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -1137,11 +1318,11 @@
         <v>3</v>
       </c>
       <c r="F25" s="1">
-        <f>(B25*C25*5)+(D25*E25*2)</f>
+        <f t="shared" si="0"/>
         <v>675000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
@@ -1158,11 +1339,11 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>(B26*C26*5)+(D26*E26*2)</f>
+        <f t="shared" si="0"/>
         <v>720000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
@@ -1179,11 +1360,11 @@
         <v>3</v>
       </c>
       <c r="F27" s="1">
-        <f>(B27*C27*5)+(D27*E27*2)</f>
+        <f t="shared" si="0"/>
         <v>870000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -1200,11 +1381,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f>(B28*C28*5)+(D28*E28*2)</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -1221,11 +1402,11 @@
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <f>(B29*C29*5)+(D29*E29*2)</f>
+        <f t="shared" si="0"/>
         <v>450000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -1242,11 +1423,11 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <f>(B30*C30*5)+(D30*E30*2)</f>
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1263,11 +1444,11 @@
         <v>3</v>
       </c>
       <c r="F31" s="1">
-        <f>(B31*C31*5)+(D31*E31*2)</f>
+        <f t="shared" si="0"/>
         <v>975000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="1">
-        <f>(B32*C32*5)+(D32*E32*2)</f>
+        <f t="shared" si="0"/>
         <v>450000</v>
       </c>
     </row>
@@ -1305,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <f>(B33*C33*5)+(D33*E33*2)</f>
+        <f t="shared" si="0"/>
         <v>574000</v>
       </c>
     </row>
@@ -1326,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f>(B34*C34*5)+(D34*E34*2)</f>
+        <f t="shared" ref="F34:F65" si="1">(B34*C34*5)+(D34*E34*2)</f>
         <v>550000</v>
       </c>
     </row>
@@ -1347,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <f>(B35*C35*5)+(D35*E35*2)</f>
+        <f t="shared" si="1"/>
         <v>280000</v>
       </c>
     </row>
@@ -1368,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="1">
-        <f>(B36*C36*5)+(D36*E36*2)</f>
+        <f t="shared" si="1"/>
         <v>340000</v>
       </c>
     </row>
@@ -1389,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <f>(B37*C37*5)+(D37*E37*2)</f>
+        <f t="shared" si="1"/>
         <v>835000</v>
       </c>
     </row>
@@ -1410,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <f>(B38*C38*5)+(D38*E38*2)</f>
+        <f t="shared" si="1"/>
         <v>665000</v>
       </c>
     </row>
@@ -1431,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f>(B39*C39*5)+(D39*E39*2)</f>
+        <f t="shared" si="1"/>
         <v>440000</v>
       </c>
     </row>
@@ -1452,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>(B40*C40*5)+(D40*E40*2)</f>
+        <f t="shared" si="1"/>
         <v>420000</v>
       </c>
     </row>
@@ -1473,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <f>(B41*C41*5)+(D41*E41*2)</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
@@ -1494,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="1">
-        <f>(B42*C42*5)+(D42*E42*2)</f>
+        <f t="shared" si="1"/>
         <v>525000</v>
       </c>
     </row>
@@ -1515,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="1">
-        <f>(B43*C43*5)+(D43*E43*2)</f>
+        <f t="shared" si="1"/>
         <v>490000</v>
       </c>
     </row>
@@ -1536,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1">
-        <f>(B44*C44*5)+(D44*E44*2)</f>
+        <f t="shared" si="1"/>
         <v>750000</v>
       </c>
     </row>
@@ -1557,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1">
-        <f>(B45*C45*5)+(D45*E45*2)</f>
+        <f t="shared" si="1"/>
         <v>603000</v>
       </c>
     </row>
@@ -1578,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <f>(B46*C46*5)+(D46*E46*2)</f>
+        <f t="shared" si="1"/>
         <v>450000</v>
       </c>
     </row>
@@ -1599,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="1">
-        <f>(B47*C47*5)+(D47*E47*2)</f>
+        <f t="shared" si="1"/>
         <v>345000</v>
       </c>
     </row>
@@ -1620,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="1">
-        <f>(B48*C48*5)+(D48*E48*2)</f>
+        <f t="shared" si="1"/>
         <v>222500</v>
       </c>
     </row>
@@ -1641,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1">
-        <f>(B49*C49*5)+(D49*E49*2)</f>
+        <f t="shared" si="1"/>
         <v>556500</v>
       </c>
     </row>
@@ -1662,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <f>(B50*C50*5)+(D50*E50*2)</f>
+        <f t="shared" si="1"/>
         <v>450000</v>
       </c>
     </row>
@@ -1683,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <f>(B51*C51*5)+(D51*E51*2)</f>
+        <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
@@ -1704,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="1">
-        <f>(B52*C52*5)+(D52*E52*2)</f>
+        <f t="shared" si="1"/>
         <v>6840000</v>
       </c>
     </row>
@@ -1725,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="1">
-        <f>(B53*C53*5)+(D53*E53*2)</f>
+        <f t="shared" si="1"/>
         <v>560000</v>
       </c>
     </row>
@@ -1746,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="1">
-        <f>(B54*C54*5)+(D54*E54*2)</f>
+        <f t="shared" si="1"/>
         <v>465000</v>
       </c>
     </row>
@@ -1767,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <f>(B55*C55*5)+(D55*E55*2)</f>
+        <f t="shared" si="1"/>
         <v>360000</v>
       </c>
     </row>
@@ -1788,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="1">
-        <f>(B56*C56*5)+(D56*E56*2)</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -1809,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <f>(B57*C57*5)+(D57*E57*2)</f>
+        <f t="shared" si="1"/>
         <v>340000</v>
       </c>
     </row>
@@ -1830,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="1">
-        <f>(B58*C58*5)+(D58*E58*2)</f>
+        <f t="shared" si="1"/>
         <v>825000</v>
       </c>
     </row>
@@ -1851,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="1">
-        <f>(B59*C59*5)+(D59*E59*2)</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
@@ -1872,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <f>(B60*C60*5)+(D60*E60*2)</f>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
     </row>
@@ -1893,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="1">
-        <f>(B61*C61*5)+(D61*E61*2)</f>
+        <f t="shared" si="1"/>
         <v>790000</v>
       </c>
     </row>
@@ -1914,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="1">
-        <f>(B62*C62*5)+(D62*E62*2)</f>
+        <f t="shared" si="1"/>
         <v>480000</v>
       </c>
     </row>
@@ -1925,383 +2106,1789 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13673C27-2FD2-41E7-A16C-126A1C115AE6}">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>(General!B2*General!C2*5)+(General!D2*General!E2*2)</f>
+        <v>350000</v>
+      </c>
+      <c r="B2">
+        <v>450000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>(General!B3*General!C3*5)+(General!D3*General!E3*2)</f>
+        <v>1050000</v>
+      </c>
+      <c r="B3">
+        <v>450000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>(General!B4*General!C4*5)+(General!D4*General!E4*2)</f>
+        <v>2100000</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>(General!B5*General!C5*5)+(General!D5*General!E5*2)</f>
+        <v>1170000</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="20">
+        <v>741327.86885245901</v>
+      </c>
+      <c r="F5" s="20">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>(General!B6*General!C6*5)+(General!D6*General!E6*2)</f>
+        <v>406000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="20">
+        <v>779277049043.71594</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>(General!B7*General!C7*5)+(General!D7*General!E7*2)</f>
+        <v>354000</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="20">
+        <v>61</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>(General!B8*General!C8*5)+(General!D8*General!E8*2)</f>
+        <v>550000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>(General!B9*General!C9*5)+(General!D9*General!E9*2)</f>
+        <v>550000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20">
+        <v>60</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>(General!B10*General!C10*5)+(General!D10*General!E10*2)</f>
+        <v>465000</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2.5775138434221341</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>(General!B11*General!C11*5)+(General!D11*General!E11*2)</f>
+        <v>525000</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6.2131016135021288E-3</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>(General!B12*General!C12*5)+(General!D12*General!E12*2)</f>
+        <v>700000</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.6706488649046354</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>(General!B13*General!C13*5)+(General!D13*General!E13*2)</f>
+        <v>560000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.2426203227004258E-2</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>(General!B14*General!C14*5)+(General!D14*General!E14*2)</f>
+        <v>1180000</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.0002978220142609</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>(General!B15*General!C15*5)+(General!D15*General!E15*2)</f>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>(General!B16*General!C16*5)+(General!D16*General!E16*2)</f>
+        <v>540000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>(General!B17*General!C17*5)+(General!D17*General!E17*2)</f>
+        <v>430000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>(General!B18*General!C18*5)+(General!D18*General!E18*2)</f>
+        <v>540000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>(General!B19*General!C19*5)+(General!D19*General!E19*2)</f>
+        <v>950000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>(General!B20*General!C20*5)+(General!D20*General!E20*2)</f>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>(General!B21*General!C21*5)+(General!D21*General!E21*2)</f>
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>(General!B22*General!C22*5)+(General!D22*General!E22*2)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>(General!B23*General!C23*5)+(General!D23*General!E23*2)</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>(General!B24*General!C24*5)+(General!D24*General!E24*2)</f>
+        <v>2295000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>(General!B25*General!C25*5)+(General!D25*General!E25*2)</f>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>(General!B26*General!C26*5)+(General!D26*General!E26*2)</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>(General!B27*General!C27*5)+(General!D27*General!E27*2)</f>
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>(General!B28*General!C28*5)+(General!D28*General!E28*2)</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>(General!B29*General!C29*5)+(General!D29*General!E29*2)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>(General!B30*General!C30*5)+(General!D30*General!E30*2)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>(General!B31*General!C31*5)+(General!D31*General!E31*2)</f>
+        <v>975000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>(General!B32*General!C32*5)+(General!D32*General!E32*2)</f>
+        <v>450000</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A33" s="1">
+        <f>(General!B33*General!C33*5)+(General!D33*General!E33*2)</f>
+        <v>574000</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A34" s="1">
+        <f>(General!B34*General!C34*5)+(General!D34*General!E34*2)</f>
+        <v>550000</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A35" s="1">
+        <f>(General!B35*General!C35*5)+(General!D35*General!E35*2)</f>
+        <v>280000</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A36" s="1">
+        <f>(General!B36*General!C36*5)+(General!D36*General!E36*2)</f>
+        <v>340000</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A37" s="1">
+        <f>(General!B37*General!C37*5)+(General!D37*General!E37*2)</f>
+        <v>835000</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A38" s="1">
+        <f>(General!B38*General!C38*5)+(General!D38*General!E38*2)</f>
+        <v>665000</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A39" s="1">
+        <f>(General!B39*General!C39*5)+(General!D39*General!E39*2)</f>
+        <v>440000</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A40" s="1">
+        <f>(General!B40*General!C40*5)+(General!D40*General!E40*2)</f>
+        <v>420000</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A41" s="1">
+        <f>(General!B41*General!C41*5)+(General!D41*General!E41*2)</f>
+        <v>1000000</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A42" s="1">
+        <f>(General!B42*General!C42*5)+(General!D42*General!E42*2)</f>
+        <v>525000</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A43" s="1">
+        <f>(General!B43*General!C43*5)+(General!D43*General!E43*2)</f>
+        <v>490000</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A44" s="1">
+        <f>(General!B44*General!C44*5)+(General!D44*General!E44*2)</f>
+        <v>750000</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A45" s="1">
+        <f>(General!B45*General!C45*5)+(General!D45*General!E45*2)</f>
+        <v>603000</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A46" s="1">
+        <f>(General!B46*General!C46*5)+(General!D46*General!E46*2)</f>
+        <v>450000</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A47" s="1">
+        <f>(General!B47*General!C47*5)+(General!D47*General!E47*2)</f>
+        <v>345000</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A48" s="1">
+        <f>(General!B48*General!C48*5)+(General!D48*General!E48*2)</f>
+        <v>222500</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A49" s="1">
+        <f>(General!B49*General!C49*5)+(General!D49*General!E49*2)</f>
+        <v>556500</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A50" s="1">
+        <f>(General!B50*General!C50*5)+(General!D50*General!E50*2)</f>
+        <v>450000</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A51" s="1">
+        <f>(General!B51*General!C51*5)+(General!D51*General!E51*2)</f>
+        <v>240000</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A52" s="1">
+        <f>(General!B52*General!C52*5)+(General!D52*General!E52*2)</f>
+        <v>6840000</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A53" s="1">
+        <f>(General!B53*General!C53*5)+(General!D53*General!E53*2)</f>
+        <v>560000</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A54" s="1">
+        <f>(General!B54*General!C54*5)+(General!D54*General!E54*2)</f>
+        <v>465000</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A55" s="1">
+        <f>(General!B55*General!C55*5)+(General!D55*General!E55*2)</f>
+        <v>360000</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A56" s="1">
+        <f>(General!B56*General!C56*5)+(General!D56*General!E56*2)</f>
+        <v>650000</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A57" s="1">
+        <f>(General!B57*General!C57*5)+(General!D57*General!E57*2)</f>
+        <v>340000</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A58" s="1">
+        <f>(General!B58*General!C58*5)+(General!D58*General!E58*2)</f>
+        <v>825000</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A59" s="1">
+        <f>(General!B59*General!C59*5)+(General!D59*General!E59*2)</f>
+        <v>500000</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A60" s="1">
+        <f>(General!B60*General!C60*5)+(General!D60*General!E60*2)</f>
+        <v>600000</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A61" s="1">
+        <f>(General!B61*General!C61*5)+(General!D61*General!E61*2)</f>
+        <v>790000</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="e">
-        <f>(#REF!*#REF!*5)+(#REF!*#REF!*2)</f>
-        <v>#REF!</v>
+      <c r="A62" s="1">
+        <f>(General!B62*General!C62*5)+(General!D62*General!E62*2)</f>
+        <v>480000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4516F151-E959-4ED5-9720-092911EE5758}">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>(General!C4*General!D4*5)+(General!E4*General!F4*2)</f>
+        <v>14100000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(General!C5*General!D5*5)+(General!E5*General!F5*2)</f>
+        <v>8220000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(General!C8*General!D8*5)+(General!E8*General!F8*2)</f>
+        <v>2700000</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(General!C9*General!D9*5)+(General!E9*General!F9*2)</f>
+        <v>2950000</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="20">
+        <v>8432066.666666666</v>
+      </c>
+      <c r="F5" s="20">
+        <v>3166209.6774193547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(General!C11*General!D11*5)+(General!E11*General!F11*2)</f>
+        <v>3900000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="20">
+        <v>322894984340229.88</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2589209429569.8916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(General!C15*General!D15*5)+(General!E15*General!F15*2)</f>
+        <v>1770000</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <f>(General!C16*General!D16*5)+(General!E16*General!F16*2)</f>
+        <v>3840000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <f>(General!C18*General!D18*5)+(General!E18*General!F18*2)</f>
+        <v>4770000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(General!C19*General!D19*5)+(General!E19*General!F19*2)</f>
+        <v>4800000</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1.5988969190758096</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(General!C20*General!D20*5)+(General!E20*General!F20*2)</f>
+        <v>4230000</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6.0341722357138909E-2</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(General!C21*General!D21*5)+(General!E21*General!F21*2)</f>
+        <v>2030000</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(General!C23*General!D23*5)+(General!E23*General!F23*2)</f>
+        <v>1200000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.12068344471427782</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(General!C24*General!D24*5)+(General!E24*General!F24*2)</f>
+        <v>15570000</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <f>(General!C28*General!D28*5)+(General!E28*General!F28*2)</f>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <f>(General!C30*General!D30*5)+(General!E30*General!F30*2)</f>
+        <v>10500000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(General!C31*General!D31*5)+(General!E31*General!F31*2)</f>
+        <v>7350000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <f>(General!C32*General!D32*5)+(General!E32*General!F32*2)</f>
+        <v>2700000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(General!C33*General!D33*5)+(General!E33*General!F33*2)</f>
+        <v>5162000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <f>(General!C34*General!D34*5)+(General!E34*General!F34*2)</f>
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <f>(General!C35*General!D35*5)+(General!E35*General!F35*2)</f>
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <f>(General!C36*General!D36*5)+(General!E36*General!F36*2)</f>
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <f>(General!C37*General!D37*5)+(General!E37*General!F37*2)</f>
+        <v>7430000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(General!C38*General!D38*5)+(General!E38*General!F38*2)</f>
+        <v>3185000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <f>(General!C39*General!D39*5)+(General!E39*General!F39*2)</f>
+        <v>3820000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <f>(General!C40*General!D40*5)+(General!E40*General!F40*2)</f>
+        <v>2130000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <f>(General!C41*General!D41*5)+(General!E41*General!F41*2)</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(General!C52*General!D52*5)+(General!E52*General!F52*2)</f>
+        <v>101760000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <f>(General!C56*General!D56*5)+(General!E56*General!F56*2)</f>
+        <v>7025000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <f>(General!C58*General!D58*5)+(General!E58*General!F58*2)</f>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <f>(General!C62*General!D62*5)+(General!E62*General!F62*2)</f>
+        <v>4290000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <f>(General!C2*General!D2*5)+(General!E2*General!F2*2)</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(General!C3*General!D3*5)+(General!E3*General!F3*2)</f>
+        <v>7050000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <f>(General!C6*General!D6*5)+(General!E6*General!F6*2)</f>
+        <v>2014000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <f>(General!C7*General!D7*5)+(General!E7*General!F7*2)</f>
+        <v>2559000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <f>(General!C10*General!D10*5)+(General!E10*General!F10*2)</f>
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <f>(General!C12*General!D12*5)+(General!E12*General!F12*2)</f>
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <f>(General!C13*General!D13*5)+(General!E13*General!F13*2)</f>
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <f>(General!C14*General!D14*5)+(General!E14*General!F14*2)</f>
+        <v>7380000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <f>(General!C17*General!D17*5)+(General!E17*General!F17*2)</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <f>(General!C22*General!D22*5)+(General!E22*General!F22*2)</f>
+        <v>1135000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <f>(General!C25*General!D25*5)+(General!E25*General!F25*2)</f>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <f>(General!C26*General!D26*5)+(General!E26*General!F26*2)</f>
+        <v>4995000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <f>(General!C27*General!D27*5)+(General!E27*General!F27*2)</f>
+        <v>5920000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <f>(General!C29*General!D29*5)+(General!E29*General!F29*2)</f>
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <f>(General!C42*General!D42*5)+(General!E42*General!F42*2)</f>
+        <v>3525000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <f>(General!C43*General!D43*5)+(General!E43*General!F43*2)</f>
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <f>(General!C44*General!D44*5)+(General!E44*General!F44*2)</f>
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <f>(General!C45*General!D45*5)+(General!E45*General!F45*2)</f>
+        <v>4188000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <f>(General!C46*General!D46*5)+(General!E46*General!F46*2)</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <f>(General!C47*General!D47*5)+(General!E47*General!F47*2)</f>
+        <v>2070000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <f>(General!C48*General!D48*5)+(General!E48*General!F48*2)</f>
+        <v>1385000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <f>(General!C49*General!D49*5)+(General!E49*General!F49*2)</f>
+        <v>3736500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <f>(General!C50*General!D50*5)+(General!E50*General!F50*2)</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <f>(General!C51*General!D51*5)+(General!E51*General!F51*2)</f>
+        <v>1160000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <f>(General!C53*General!D53*5)+(General!E53*General!F53*2)</f>
+        <v>2765000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <f>(General!C54*General!D54*5)+(General!E54*General!F54*2)</f>
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <f>(General!C55*General!D55*5)+(General!E55*General!F55*2)</f>
+        <v>1840000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <f>(General!C57*General!D57*5)+(General!E57*General!F57*2)</f>
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <f>(General!C59*General!D59*5)+(General!E59*General!F59*2)</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <f>(General!C60*General!D60*5)+(General!E60*General!F60*2)</f>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <f>(General!C61*General!D61*5)+(General!E61*General!F61*2)</f>
+        <v>4010000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B62">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C3EEA-63C9-4E73-87B7-A8BAB28DCF06}">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>35000</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>50000</v>
+      </c>
+      <c r="B3" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="10">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>25000</v>
+      </c>
+      <c r="B6" s="10">
+        <v>39000</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>12000</v>
+      </c>
+      <c r="B7" s="10">
+        <v>29000</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17">
+        <v>33213.114754098358</v>
+      </c>
+      <c r="G7" s="17">
+        <v>45827.868852459018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>35000</v>
+      </c>
+      <c r="B8" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="17">
+        <v>385628825.13661206</v>
+      </c>
+      <c r="G8" s="17">
+        <v>898382377.04918039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>25000</v>
+      </c>
+      <c r="B9" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="17">
+        <v>61</v>
+      </c>
+      <c r="G9" s="17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>19000</v>
+      </c>
+      <c r="B10" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>15000</v>
+      </c>
+      <c r="B11" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="17">
+        <v>103</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B12" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="22">
+        <v>-2.7495353035282326</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>40000</v>
+      </c>
+      <c r="B13" s="10">
+        <v>40000</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3.5248651527559956E-3</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1.6597822733802527</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>15000</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="17">
+        <v>7.0497303055119913E-3</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>20000</v>
+      </c>
+      <c r="B16" s="10">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.9832641447734605</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>50000</v>
+      </c>
+      <c r="B17" s="10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>20000</v>
+      </c>
+      <c r="B18" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>55000</v>
+      </c>
+      <c r="B19" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B20" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>15000</v>
+      </c>
+      <c r="B21" s="10">
+        <v>55000</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20000</v>
+      </c>
+      <c r="B22" s="10">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>18000</v>
+      </c>
+      <c r="B23" s="10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>105000</v>
+      </c>
+      <c r="B24" s="10">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>45000</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B26" s="10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>45000</v>
+      </c>
+      <c r="B27" s="10">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>45000</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>50000</v>
+      </c>
+      <c r="B29" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>60000</v>
+      </c>
+      <c r="B30" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>25000</v>
+      </c>
+      <c r="B31" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>18000</v>
+      </c>
+      <c r="B33" s="8">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>29000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B39" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>23000</v>
+      </c>
+      <c r="B41" s="7">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>32500</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>26500</v>
+      </c>
+      <c r="B49" s="3">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>60000</v>
+      </c>
+      <c r="B52" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>19000</v>
+      </c>
+      <c r="B54" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B55" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B56" s="2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B57" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B59" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B60" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B61" s="2">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B62" s="2">
+        <v>22500</v>
       </c>
     </row>
   </sheetData>

--- a/Hitungan Unclean.xlsx
+++ b/Hitungan Unclean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Semester 3\Statistic\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D5D14-ED7C-44D7-B90E-A1EE1AC2E922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47448F0C-A984-4AF9-BDE7-A8DFD8396A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Gender" sheetId="3" r:id="rId3"/>
     <sheet name="Days" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,8 +241,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -372,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -414,6 +415,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,19 +698,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -730,7 +732,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -751,7 +753,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -776,7 +778,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -797,7 +799,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -824,7 +826,7 @@
         <v>741327.86885245901</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -851,7 +853,7 @@
         <v>113026.69415178252</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -878,7 +880,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -905,7 +907,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -932,7 +934,7 @@
         <v>882766.70136775996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
@@ -959,7 +961,7 @@
         <v>779277049043.71594</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -986,7 +988,7 @@
         <v>39.116339493635223</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>5.8180314410750569</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>6617500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>222500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>6840000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>45221000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>226087.05014128255</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1198,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>975000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>574000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -1507,11 +1509,11 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F65" si="1">(B34*C34*5)+(D34*E34*2)</f>
+        <f t="shared" ref="F34:F62" si="1">(B34*C34*5)+(D34*E34*2)</f>
         <v>550000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>835000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>665000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>603000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>345000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>222500</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>556500</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>6840000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>1</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>790000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -2106,25 +2108,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13673C27-2FD2-41E7-A16C-126A1C115AE6}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>(General!B2*General!C2*5)+(General!D2*General!E2*2)</f>
         <v>350000</v>
@@ -2136,7 +2139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f>(General!B3*General!C3*5)+(General!D3*General!E3*2)</f>
         <v>1050000</v>
@@ -2148,7 +2151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>(General!B4*General!C4*5)+(General!D4*General!E4*2)</f>
         <v>2100000</v>
@@ -2161,7 +2164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>(General!B5*General!C5*5)+(General!D5*General!E5*2)</f>
         <v>1170000</v>
@@ -2176,7 +2179,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>(General!B6*General!C6*5)+(General!D6*General!E6*2)</f>
         <v>406000</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>(General!B7*General!C7*5)+(General!D7*General!E7*2)</f>
         <v>354000</v>
@@ -2206,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>(General!B8*General!C8*5)+(General!D8*General!E8*2)</f>
         <v>550000</v>
@@ -2219,7 +2222,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>(General!B9*General!C9*5)+(General!D9*General!E9*2)</f>
         <v>550000</v>
@@ -2232,7 +2235,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>(General!B10*General!C10*5)+(General!D10*General!E10*2)</f>
         <v>465000</v>
@@ -2245,7 +2248,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>(General!B11*General!C11*5)+(General!D11*General!E11*2)</f>
         <v>525000</v>
@@ -2258,7 +2261,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>(General!B12*General!C12*5)+(General!D12*General!E12*2)</f>
         <v>700000</v>
@@ -2271,7 +2274,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>(General!B13*General!C13*5)+(General!D13*General!E13*2)</f>
         <v>560000</v>
@@ -2284,7 +2287,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <f>(General!B14*General!C14*5)+(General!D14*General!E14*2)</f>
         <v>1180000</v>
@@ -2297,13 +2300,13 @@
       </c>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>(General!B15*General!C15*5)+(General!D15*General!E15*2)</f>
         <v>330000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>(General!B16*General!C16*5)+(General!D16*General!E16*2)</f>
         <v>540000</v>
@@ -2312,7 +2315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>(General!B17*General!C17*5)+(General!D17*General!E17*2)</f>
         <v>430000</v>
@@ -2321,7 +2324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f>(General!B18*General!C18*5)+(General!D18*General!E18*2)</f>
         <v>540000</v>
@@ -2330,7 +2333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f>(General!B19*General!C19*5)+(General!D19*General!E19*2)</f>
         <v>950000</v>
@@ -2339,262 +2342,268 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f>(General!B20*General!C20*5)+(General!D20*General!E20*2)</f>
         <v>630000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>(General!B21*General!C21*5)+(General!D21*General!E21*2)</f>
         <v>370000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>(General!B22*General!C22*5)+(General!D22*General!E22*2)</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>(General!B23*General!C23*5)+(General!D23*General!E23*2)</f>
         <v>250000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>(General!B24*General!C24*5)+(General!D24*General!E24*2)</f>
         <v>2295000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>(General!B25*General!C25*5)+(General!D25*General!E25*2)</f>
         <v>675000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f>(General!B26*General!C26*5)+(General!D26*General!E26*2)</f>
         <v>720000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>(General!B27*General!C27*5)+(General!D27*General!E27*2)</f>
         <v>870000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>(General!B28*General!C28*5)+(General!D28*General!E28*2)</f>
         <v>900000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>(General!B29*General!C29*5)+(General!D29*General!E29*2)</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f>(General!B30*General!C30*5)+(General!D30*General!E30*2)</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f>(General!B31*General!C31*5)+(General!D31*General!E31*2)</f>
         <v>975000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f>(General!B32*General!C32*5)+(General!D32*General!E32*2)</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f>(General!B33*General!C33*5)+(General!D33*General!E33*2)</f>
         <v>574000</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f>(General!B34*General!C34*5)+(General!D34*General!E34*2)</f>
         <v>550000</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f>(General!B35*General!C35*5)+(General!D35*General!E35*2)</f>
         <v>280000</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f>(General!B36*General!C36*5)+(General!D36*General!E36*2)</f>
         <v>340000</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f>(General!B37*General!C37*5)+(General!D37*General!E37*2)</f>
         <v>835000</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f>(General!B38*General!C38*5)+(General!D38*General!E38*2)</f>
         <v>665000</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f>(General!B39*General!C39*5)+(General!D39*General!E39*2)</f>
         <v>440000</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f>(General!B40*General!C40*5)+(General!D40*General!E40*2)</f>
         <v>420000</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f>(General!B41*General!C41*5)+(General!D41*General!E41*2)</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f>(General!B42*General!C42*5)+(General!D42*General!E42*2)</f>
         <v>525000</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f>(General!B43*General!C43*5)+(General!D43*General!E43*2)</f>
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f>(General!B44*General!C44*5)+(General!D44*General!E44*2)</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f>(General!B45*General!C45*5)+(General!D45*General!E45*2)</f>
         <v>603000</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f>(General!B46*General!C46*5)+(General!D46*General!E46*2)</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f>(General!B47*General!C47*5)+(General!D47*General!E47*2)</f>
         <v>345000</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f>(General!B48*General!C48*5)+(General!D48*General!E48*2)</f>
         <v>222500</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f>(General!B49*General!C49*5)+(General!D49*General!E49*2)</f>
         <v>556500</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f>(General!B50*General!C50*5)+(General!D50*General!E50*2)</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f>(General!B51*General!C51*5)+(General!D51*General!E51*2)</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f>(General!B52*General!C52*5)+(General!D52*General!E52*2)</f>
         <v>6840000</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f>(General!B53*General!C53*5)+(General!D53*General!E53*2)</f>
         <v>560000</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f>(General!B54*General!C54*5)+(General!D54*General!E54*2)</f>
         <v>465000</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f>(General!B55*General!C55*5)+(General!D55*General!E55*2)</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f>(General!B56*General!C56*5)+(General!D56*General!E56*2)</f>
         <v>650000</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f>(General!B57*General!C57*5)+(General!D57*General!E57*2)</f>
         <v>340000</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f>(General!B58*General!C58*5)+(General!D58*General!E58*2)</f>
         <v>825000</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f>(General!B59*General!C59*5)+(General!D59*General!E59*2)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f>(General!B60*General!C60*5)+(General!D60*General!E60*2)</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f>(General!B61*General!C61*5)+(General!D61*General!E61*2)</f>
         <v>790000</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f>(General!B62*General!C62*5)+(General!D62*General!E62*2)</f>
         <v>480000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="27">
+        <f>SUM(A2:A62)</f>
+        <v>45221000</v>
       </c>
     </row>
   </sheetData>
@@ -2611,15 +2620,15 @@
       <selection activeCell="D16" sqref="D16:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>8220000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>3166209.6774193547</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>2589209429569.8916</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2743,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2791,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2807,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2839,7 @@
       </c>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2848,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2914,7 @@
         <v>1320000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>1710000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>7430000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>3185000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>3820000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>2130000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>101760000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>7025000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>2014000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>2559000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>3240000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3067,7 @@
         <v>2640000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>7380000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3085,7 @@
         <v>2730000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>1</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>1135000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>1</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>5920000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>1</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>3525000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>2310000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>4188000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>2070000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>1385000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>3736500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>1160000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
@@ -3220,7 +3229,7 @@
         <v>2765000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>3240000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>1840000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>1</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>1710000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>1</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
@@ -3286,18 +3295,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C3EEA-63C9-4E73-87B7-A8BAB28DCF06}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>35000</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>50000</v>
       </c>
@@ -3321,7 +3330,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>100000</v>
       </c>
@@ -3332,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>45000</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>25000</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>12000</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>45827.868852459018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>35000</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>898382377.04918039</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>25000</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>19000</v>
       </c>
@@ -3421,7 +3430,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>15000</v>
       </c>
@@ -3436,7 +3445,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>30000</v>
       </c>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>40000</v>
       </c>
@@ -3466,7 +3475,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>100000</v>
       </c>
@@ -3481,7 +3490,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>15000</v>
       </c>
@@ -3496,7 +3505,7 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>20000</v>
       </c>
@@ -3511,7 +3520,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>50000</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>20000</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>55000</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>30000</v>
       </c>
@@ -3552,7 +3561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>15000</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>20000</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>18000</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>105000</v>
       </c>
@@ -3587,7 +3596,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>45000</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>30000</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>45000</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>45000</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>50000</v>
       </c>
@@ -3627,7 +3636,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>60000</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>25000</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>30000</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>18000</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>25000</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20000</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>20000</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>29000</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>35000</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>20000</v>
       </c>
@@ -3707,7 +3716,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>20000</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>23000</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>25000</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>35000</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>30000</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>25000</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>30000</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>23000</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>32500</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>26500</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>25000</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>16000</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>60000</v>
       </c>
@@ -3811,7 +3820,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>35000</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>19000</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>20000</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>20000</v>
       </c>
@@ -3843,7 +3852,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>20000</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>35000</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>30000</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>40000</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>45000</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>15000</v>
       </c>

--- a/Hitungan Unclean.xlsx
+++ b/Hitungan Unclean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D5D14-ED7C-44D7-B90E-A1EE1AC2E922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E3FB3-F300-4854-BBD8-FC12DEEE0AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -236,6 +236,9 @@
   <si>
     <t>H1: W-days &gt; W-end</t>
   </si>
+  <si>
+    <t>Decision: Do not reject H0 (Pengeluaran mahasiswa HTB untuk seporsi makanan saat weekdays lebih sedikit dari pada saat weekend)</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +295,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +416,7 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F65" si="1">(B34*C34*5)+(D34*E34*2)</f>
+        <f t="shared" ref="F34:F62" si="1">(B34*C34*5)+(D34*E34*2)</f>
         <v>550000</v>
       </c>
     </row>
@@ -3286,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C3EEA-63C9-4E73-87B7-A8BAB28DCF06}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3563,7 @@
         <v>55000</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,5 +3896,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hitungan Unclean.xlsx
+++ b/Hitungan Unclean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E3FB3-F300-4854-BBD8-FC12DEEE0AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B3189-2A53-4AC8-99FE-1244BD988939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="45">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -302,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -417,6 +423,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13673C27-2FD2-41E7-A16C-126A1C115AE6}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,7 +2619,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2788,7 @@
       <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="28">
         <v>6.0341722357138909E-2</v>
       </c>
       <c r="F11" s="20"/>
@@ -3289,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C3EEA-63C9-4E73-87B7-A8BAB28DCF06}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3472,7 @@
       <c r="E13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="27">
         <v>3.5248651527559956E-3</v>
       </c>
       <c r="G13" s="17"/>
